--- a/Output_testing/R1_201907/Country/HKD/MN/COUNTRY UNKNOWN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/COUNTRY UNKNOWN_201907_HKD_MN.xlsx
@@ -578,31 +578,39 @@
       <c r="C8" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>0</v>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G8" s="8" t="n">
-        <v>0</v>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H8" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -652,31 +660,39 @@
       <c r="C10" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/Output_testing/R1_201907/Country/HKD/MN/COUNTRY UNKNOWN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/COUNTRY UNKNOWN_201907_HKD_MN.xlsx
@@ -838,28 +838,100 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>POSTAL PACKAGES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>219.732</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>108.146</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>70.744</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>182.427</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>313.9482641252553</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="n"/>
@@ -999,28 +1071,100 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>POSTAL PACKAGES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>219.732</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>108.146</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>70.744</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>182.427</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>313.9482641252553</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="n"/>
@@ -1160,28 +1304,118 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>POSTAL PACKAGES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="n"/>
@@ -1321,28 +1555,100 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>POSTAL PACKAGES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>193.882</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>193.439</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>126.305</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>145.61</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>74.45844915173008</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="n"/>
